--- a/static/countrycode.xlsx
+++ b/static/countrycode.xlsx
@@ -3,13 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FABA197-3DA8-4971-94DB-31048498F326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBEDD24-FC5A-40C4-AB61-417F6B27E4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="105" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Country codes" sheetId="2" r:id="rId1"/>
     <sheet name="Nationality codes" sheetId="1" r:id="rId2"/>
+    <sheet name="Course Info" sheetId="3" r:id="rId3"/>
+    <sheet name="Course Level" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Blah">#REF!</definedName>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="570">
   <si>
     <t>ANDORRA</t>
   </si>
@@ -1677,13 +1679,67 @@
   </si>
   <si>
     <t>UNSPECIFIED NATIONALITY</t>
+  </si>
+  <si>
+    <t>Course Title</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>London Scholars</t>
+  </si>
+  <si>
+    <t>MSc Computer Sciences</t>
+  </si>
+  <si>
+    <t>BA Filmmaking</t>
+  </si>
+  <si>
+    <t>Display text</t>
+  </si>
+  <si>
+    <t>BDT Code</t>
+  </si>
+  <si>
+    <t>RQF level 4</t>
+  </si>
+  <si>
+    <t>RQF level 7</t>
+  </si>
+  <si>
+    <t>RQF level 7 - Research</t>
+  </si>
+  <si>
+    <t>RQF level 8</t>
+  </si>
+  <si>
+    <t>RQF level 8 - Research</t>
+  </si>
+  <si>
+    <t>RQF4</t>
+  </si>
+  <si>
+    <t>RQF7</t>
+  </si>
+  <si>
+    <t>RQF7_RE</t>
+  </si>
+  <si>
+    <t>RQF8</t>
+  </si>
+  <si>
+    <t>RQF8_RE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1708,13 +1764,32 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0B0C0C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0B0C0C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1757,7 +1832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1786,6 +1861,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4137,7 +4222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B266"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -6280,4 +6365,136 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C42813-83C0-4184-A8C5-3B5A0ED1D5C6}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B2" s="12">
+        <v>45539</v>
+      </c>
+      <c r="C2" s="12">
+        <v>45773</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B3" s="12">
+        <v>45536</v>
+      </c>
+      <c r="C3" s="12">
+        <v>46031</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B4" s="12">
+        <v>45536</v>
+      </c>
+      <c r="C4" s="12">
+        <v>46503</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C290FFF-E80F-498E-B1C0-F26085EF6128}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>560</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>561</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>562</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>564</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>569</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>